--- a/User/MT/ForceDataBase.xlsx
+++ b/User/MT/ForceDataBase.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -357,10 +357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -373,8 +374,8 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>EXP(LOG(A1 + 0.009076778736745) / 1.46927)</f>
-        <v>0.24911210215713639</v>
+        <f>EXP(LN(A1 + 0.009076778736745) / 1.46927)</f>
+        <v>4.0751887212009688E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -382,8 +383,8 @@
         <v>0.01</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">EXP(LOG(A2 + 0.009076778736745) / 1.46927)</f>
-        <v>0.31027209736741629</v>
+        <f t="shared" ref="B2:B65" si="0">EXP(LN(A2 + 0.009076778736745) / 1.46927)</f>
+        <v>6.7560735202198283E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -392,7 +393,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>0.35143661527382397</v>
+        <v>9.0006544682237344E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -401,7 +402,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>0.38352352588163813</v>
+        <v>0.11006409960667815</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -410,7 +411,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>0.410244079041093</v>
+        <v>0.12852778357490668</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -419,7 +420,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.43336015553075102</v>
+        <v>0.14581891796193189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -428,7 +429,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.45386190104287227</v>
+        <v>0.16219508515638081</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -437,7 +438,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.47236702522293206</v>
+        <v>0.17782835056812729</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -446,7 +447,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0.48928952686770927</v>
+        <v>0.19284088449123513</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -455,7 +456,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>0.50492181705992967</v>
+        <v>0.20732339912475797</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -464,7 +465,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0.5194788861829579</v>
+        <v>0.22134559737183729</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -473,7 +474,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0.53312389996780507</v>
+        <v>0.23496251161277232</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -482,7 +483,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.54598392231858262</v>
+        <v>0.24821855898795736</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -491,7 +492,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.55816003552965909</v>
+        <v>0.26115024902529232</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -500,7 +501,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.56973410941156066</v>
+        <v>0.27378805611096618</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -509,7 +510,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.58077347694086556</v>
+        <v>0.28615775308111779</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -518,7 +519,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.59133425337762435</v>
+        <v>0.29828138508975799</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -527,7 +528,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0.60146374851697226</v>
+        <v>0.31017799627964071</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -536,7 +537,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0.61120225612263201</v>
+        <v>0.32186418227116809</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -545,7 +546,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.62058440543825222</v>
+        <v>0.33335451720194581</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -554,7 +555,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0.62964019833532658</v>
+        <v>0.34466188865606279</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -563,7 +564,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0.63839581660502898</v>
+        <v>0.35579776379413003</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -572,7 +573,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0.64687425839764234</v>
+        <v>0.36677240330293348</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -581,7 +582,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0.65509584577512903</v>
+        <v>0.37759503522046667</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -590,7 +591,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0.66307863372562026</v>
+        <v>0.38827399752008712</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -599,7 +600,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0.67083874292127399</v>
+        <v>0.39881685609375939</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -608,7 +609,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0.67839063280431833</v>
+        <v>0.40923050316185799</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -617,7 +618,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0.68574732750191081</v>
+        <v>0.41952123996137319</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -626,7 +627,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.69292060410123579</v>
+        <v>0.42969484669583102</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -635,7 +636,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0.69992115062988425</v>
+        <v>0.43975664208076359</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -644,7 +645,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0.70675869945750924</v>
+        <v>0.44971153432742916</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -653,7 +654,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>0.71344214060764299</v>
+        <v>0.4595640650322107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -662,7 +663,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>0.71997961853482351</v>
+        <v>0.46931844714962068</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -671,7 +672,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>0.72637861520493974</v>
+        <v>0.47897859800149678</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -680,7 +681,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>0.73264602176090576</v>
+        <v>0.4885481680980947</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -689,7 +690,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>0.7387882006215295</v>
+        <v>0.49803056640687449</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -698,7 +699,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0.74481103951952898</v>
+        <v>0.50742898259327385</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -707,7 +708,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>0.75071999871349548</v>
+        <v>0.51674640666831173</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -716,7 +717,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>0.75652015239209214</v>
+        <v>0.52598564640561929</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -725,7 +726,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>0.76221622511477505</v>
+        <v>0.53514934283180193</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -734,7 +735,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>0.76781262399265227</v>
+        <v>0.54423998404607032</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -743,7 +744,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>0.77331346719869909</v>
+        <v>0.55325991758566861</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -752,7 +753,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>0.77872260930302606</v>
+        <v>0.56221136152108264</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -761,7 +762,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>0.78404366385203184</v>
+        <v>0.57109641443799597</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -770,7 +771,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>0.78928002354680449</v>
+        <v>0.57991706444044022</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -779,7 +780,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>0.79443487832346771</v>
+        <v>0.58867519729072393</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -788,7 +789,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>0.79951123159428117</v>
+        <v>0.59737260378586132</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -797,7 +798,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>0.80451191487157536</v>
+        <v>0.60601098645682216</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -806,7 +807,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>0.80943960096573619</v>
+        <v>0.61459196566557894</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -815,7 +816,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>0.81429681592241898</v>
+        <v>0.62311708516525477</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -824,7 +825,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>0.81908594984213268</v>
+        <v>0.63158781718044266</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -833,7 +834,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>0.82380926670660404</v>
+        <v>0.64000556705769029</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -842,7 +843,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>0.82846891332036721</v>
+        <v>0.64837167753008063</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -851,7 +852,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>0.83306692746236777</v>
+        <v>0.65668743263460383</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -860,7 +861,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>0.83760524533065639</v>
+        <v>0.66495406131649104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -869,7 +870,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>0.84208570835316232</v>
+        <v>0.67317274075075739</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -878,7 +879,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>0.84651006942883933</v>
+        <v>0.68134459940779357</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -887,7 +888,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>0.8508799986559441</v>
+        <v>0.68947071988686859</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -896,7 +897,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>0.8551970885976764</v>
+        <v>0.69755214153881306</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -905,7 +906,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>0.8594628591297232</v>
+        <v>0.70558986289687053</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -914,7 +915,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>0.86367876190929427</v>
+        <v>0.7135848439327126</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -923,7 +924,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>0.86784618450090267</v>
+        <v>0.72153800815284841</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -932,7 +933,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>0.87196645419034591</v>
+        <v>0.72945024454911278</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -941,7 +942,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>0.87604084151500861</v>
+        <v>0.73732240941554117</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -950,7 +951,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>0.8800705635356757</v>
+        <v>0.74515532804272966</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -958,8 +959,8 @@
         <v>0.65</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B105" si="1">EXP(LOG(A66 + 0.009076778736745) / 1.46927)</f>
-        <v>0.88405678687245259</v>
+        <f t="shared" ref="B66:B101" si="1">EXP(LN(A66 + 0.009076778736745) / 1.46927)</f>
+        <v>0.75294979629969683</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -968,7 +969,7 @@
       </c>
       <c r="B67">
         <f t="shared" si="1"/>
-        <v>0.88800063052510647</v>
+        <v>0.76070658211230768</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -977,7 +978,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>0.89190316849611262</v>
+        <v>0.768426426846465</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -986,7 +987,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>0.89576543223290017</v>
+        <v>0.77611004660351246</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -995,7 +996,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>0.89958841290418556</v>
+        <v>0.7837581334346112</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -1004,7 +1005,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>0.90337306352387214</v>
+        <v>0.79137135648024393</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -1013,7 +1014,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
-        <v>0.90712030093471441</v>
+        <v>0.79895036304044942</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -1022,7 +1023,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
-        <v>0.91083100766282366</v>
+        <v>0.8064957795809039</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -1031,7 +1032,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
-        <v>0.91450603365307093</v>
+        <v>0.81400821267951795</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -1040,7 +1041,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
-        <v>0.91814619789453866</v>
+        <v>0.82148824991782399</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -1049,7 +1050,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
-        <v>0.92175228994435476</v>
+        <v>0.82893646072106586</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -1058,7 +1059,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
-        <v>0.92532507135751341</v>
+        <v>0.8363533971505781</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -1067,7 +1068,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
-        <v>0.9288652770296234</v>
+        <v>0.84373959465174997</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -1076,7 +1077,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
-        <v>0.93237361645893091</v>
+        <v>0.85109557276059955</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -1085,7 +1086,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
-        <v>0.9358507749334295</v>
+        <v>0.85842183577174336</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -1094,7 +1095,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
-        <v>0.93929741464838024</v>
+        <v>0.8657188733703276</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -1103,7 +1104,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
-        <v>0.94271417575912886</v>
+        <v>0.87298716123028441</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1112,7 +1113,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
-        <v>0.9461016773737071</v>
+        <v>0.88022716158109737</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1121,7 +1122,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
-        <v>0.94946051848934399</v>
+        <v>0.8874393237450926</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -1130,7 +1131,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
-        <v>0.95279127887668458</v>
+        <v>0.8946240846471204</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1139,7 +1140,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
-        <v>0.95609451991521655</v>
+        <v>0.90178186929835569</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1148,7 +1149,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
-        <v>0.95937078538313025</v>
+        <v>0.90891309125581443</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -1157,7 +1158,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
-        <v>0.96262060220459089</v>
+        <v>0.91601815305907219</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -1166,7 +1167,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
-        <v>0.96584448115717803</v>
+        <v>0.92309744664556082</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1175,7 +1176,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
-        <v>0.96904291754203575</v>
+        <v>0.93015135374572289</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1184,7 +1185,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
-        <v>0.97221639181909114</v>
+        <v>0.93718024625921426</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1193,7 +1194,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
-        <v>0.97536537020952618</v>
+        <v>0.94418448661326115</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -1202,7 +1203,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
-        <v>0.97849030526752545</v>
+        <v>0.95116442810420287</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -1211,7 +1212,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
-        <v>0.98159163642318092</v>
+        <v>0.95812041522318236</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -1220,7 +1221,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
-        <v>0.98466979049829972</v>
+        <v>0.96505278396687977</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1229,7 +1230,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
-        <v>0.98772518219673555</v>
+        <v>0.97196186213412727</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -1238,7 +1239,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
-        <v>0.99075821457075619</v>
+        <v>0.97884796960918541</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -1247,7 +1248,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
-        <v>0.99376927946485061</v>
+        <v>0.98571141863241407</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1256,7 +1257,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
-        <v>0.99675875793828739</v>
+        <v>0.9925525140590199</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1265,7 +1266,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
-        <v>0.99972702066764374</v>
+        <v>0.99937155360652163</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1274,7 +1275,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
-        <v>1.0026744283304463</v>
+        <v>1.0061688280915329</v>
       </c>
     </row>
   </sheetData>
